--- a/2020-03-21-Germany-Covid19-Prediction.xlsx
+++ b/2020-03-21-Germany-Covid19-Prediction.xlsx
@@ -770,6 +770,9 @@
       <c r="A23" s="2">
         <v>43912</v>
       </c>
+      <c r="B23">
+        <v>24873</v>
+      </c>
       <c r="C23">
         <v>21</v>
       </c>
@@ -819,7 +822,7 @@
         <v>75295</v>
       </c>
       <c r="E26">
-        <v>75195</v>
+        <v>75196</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,7 +836,7 @@
         <v>97797</v>
       </c>
       <c r="E27">
-        <v>97629</v>
+        <v>97630</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -847,7 +850,7 @@
         <v>127025</v>
       </c>
       <c r="E28">
-        <v>126741</v>
+        <v>126743</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -861,7 +864,7 @@
         <v>164988</v>
       </c>
       <c r="E29">
-        <v>164510</v>
+        <v>164512</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -875,7 +878,7 @@
         <v>214296</v>
       </c>
       <c r="E30">
-        <v>213490</v>
+        <v>213494</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -889,7 +892,7 @@
         <v>278340</v>
       </c>
       <c r="E31">
-        <v>276981</v>
+        <v>276989</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -903,7 +906,7 @@
         <v>361525</v>
       </c>
       <c r="E32">
-        <v>359235</v>
+        <v>359248</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -917,7 +920,7 @@
         <v>469570</v>
       </c>
       <c r="E33">
-        <v>465714</v>
+        <v>465736</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -931,7 +934,7 @@
         <v>609906</v>
       </c>
       <c r="E34">
-        <v>603416</v>
+        <v>603453</v>
       </c>
     </row>
   </sheetData>

--- a/2020-03-21-Germany-Covid19-Prediction.xlsx
+++ b/2020-03-21-Germany-Covid19-Prediction.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,9 +770,6 @@
       <c r="A23" s="2">
         <v>43912</v>
       </c>
-      <c r="B23">
-        <v>24873</v>
-      </c>
       <c r="C23">
         <v>21</v>
       </c>
@@ -921,20 +918,6 @@
       </c>
       <c r="E33">
         <v>465736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>609906</v>
-      </c>
-      <c r="E34">
-        <v>603453</v>
       </c>
     </row>
   </sheetData>

--- a/2020-03-21-Germany-Covid19-Prediction.xlsx
+++ b/2020-03-21-Germany-Covid19-Prediction.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,34 +892,6 @@
         <v>276989</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <v>361525</v>
-      </c>
-      <c r="E32">
-        <v>359248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>469570</v>
-      </c>
-      <c r="E33">
-        <v>465736</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
